--- a/carecentre/鲁孟达-制作功能计划表.xlsx
+++ b/carecentre/鲁孟达-制作功能计划表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgramData\carecentre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7490B3AB-0918-4705-8C9D-E6BC62DF5B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4045F5AF-21DC-42C1-BCA6-1649E78AAA1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="10785" windowWidth="17580" windowHeight="10695" xr2:uid="{0CCC4EAE-3D9E-4756-B7CE-D800068CC4D4}"/>
+    <workbookView xWindow="10335" yWindow="3240" windowWidth="17580" windowHeight="10695" xr2:uid="{0CCC4EAE-3D9E-4756-B7CE-D800068CC4D4}"/>
   </bookViews>
   <sheets>
     <sheet name="鲁孟达计划表" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>大项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>护工根据客户口味设置客户的膳食分配。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员工个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建、查找、删除员工的各种信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,6 +217,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7959FE-CC0C-44F7-9D66-95015BE34B86}">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -547,180 +568,188 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
